--- a/storage/app/tests/other classifiers/child.evaluation.xlsx
+++ b/storage/app/tests/other classifiers/child.evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/other classifiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{64D9BE10-6CC8-9649-8EA1-83C70DBEB258}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A39C35B1-D481-B145-B531-93538FDD293E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{963E8D56-AF94-244D-B5C7-E993FB04D8FF}"/>
   </bookViews>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,7 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893DB59-1D90-2946-A5E3-150D4C3C408E}">
-  <dimension ref="A1:AH117"/>
+  <dimension ref="A1:AG117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="115" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+    <sheetView tabSelected="1" topLeftCell="S18" zoomScale="115" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +544,7 @@
     <col min="33" max="33" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>85.58</v>
       </c>
@@ -746,9 +745,8 @@
       <c r="AG2" s="7">
         <v>5</v>
       </c>
-      <c r="AH2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>87.149999999999991</v>
       </c>
@@ -848,9 +846,8 @@
       <c r="AG3" s="7">
         <v>5</v>
       </c>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7.3900000000000006</v>
       </c>
@@ -950,9 +947,8 @@
       <c r="AG4" s="7">
         <v>5</v>
       </c>
-      <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>33.01</v>
       </c>
@@ -1052,9 +1048,8 @@
       <c r="AG5" s="7">
         <v>5</v>
       </c>
-      <c r="AH5" s="8"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44.410000000000004</v>
       </c>
@@ -1154,9 +1149,8 @@
       <c r="AG6" s="7">
         <v>5</v>
       </c>
-      <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>48.589999999999996</v>
       </c>
@@ -1256,9 +1250,8 @@
       <c r="AG7" s="7">
         <v>5</v>
       </c>
-      <c r="AH7" s="8"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>57.22</v>
       </c>
@@ -1358,9 +1351,8 @@
       <c r="AG8" s="7">
         <v>5</v>
       </c>
-      <c r="AH8" s="8"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1460,9 +1452,8 @@
       <c r="AG9" s="7">
         <v>5</v>
       </c>
-      <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>72.03</v>
       </c>
@@ -1562,9 +1553,8 @@
       <c r="AG10" s="7">
         <v>5</v>
       </c>
-      <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43.879999999999995</v>
       </c>
@@ -1664,9 +1654,8 @@
       <c r="AG11" s="7">
         <v>5</v>
       </c>
-      <c r="AH11" s="8"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>56.059999999999995</v>
       </c>
@@ -1766,9 +1755,8 @@
       <c r="AG12" s="7">
         <v>5</v>
       </c>
-      <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>83.02</v>
       </c>
@@ -1868,9 +1856,8 @@
       <c r="AG13" s="7">
         <v>5</v>
       </c>
-      <c r="AH13" s="8"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1970,9 +1957,8 @@
       <c r="AG14" s="2">
         <v>6</v>
       </c>
-      <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2072,9 +2058,8 @@
       <c r="AG15" s="2">
         <v>6</v>
       </c>
-      <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2174,9 +2159,8 @@
       <c r="AG16" s="2">
         <v>6</v>
       </c>
-      <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2276,9 +2260,8 @@
       <c r="AG17" s="2">
         <v>6</v>
       </c>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2378,9 +2361,8 @@
       <c r="AG18" s="2">
         <v>6</v>
       </c>
-      <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2480,9 +2462,8 @@
       <c r="AG19" s="2">
         <v>6</v>
       </c>
-      <c r="AH19" s="8"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2582,9 +2563,8 @@
       <c r="AG20" s="2">
         <v>6</v>
       </c>
-      <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2684,9 +2664,8 @@
       <c r="AG21" s="2">
         <v>6</v>
       </c>
-      <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2786,9 +2765,8 @@
       <c r="AG22" s="2">
         <v>6</v>
       </c>
-      <c r="AH22" s="8"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2888,9 +2866,8 @@
       <c r="AG23" s="2">
         <v>6</v>
       </c>
-      <c r="AH23" s="8"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2990,9 +2967,8 @@
       <c r="AG24" s="2">
         <v>6</v>
       </c>
-      <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3092,9 +3068,8 @@
       <c r="AG25" s="2">
         <v>6</v>
       </c>
-      <c r="AH25" s="8"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3194,9 +3169,8 @@
       <c r="AG26" s="2">
         <v>6</v>
       </c>
-      <c r="AH26" s="8"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3296,9 +3270,8 @@
       <c r="AG27" s="2">
         <v>6</v>
       </c>
-      <c r="AH27" s="8"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3398,9 +3371,8 @@
       <c r="AG28" s="2">
         <v>6</v>
       </c>
-      <c r="AH28" s="8"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3500,9 +3472,8 @@
       <c r="AG29" s="2">
         <v>6</v>
       </c>
-      <c r="AH29" s="8"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -3602,9 +3573,8 @@
       <c r="AG30" s="2">
         <v>6</v>
       </c>
-      <c r="AH30" s="8"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -3704,9 +3674,8 @@
       <c r="AG31" s="2">
         <v>6</v>
       </c>
-      <c r="AH31" s="8"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -3806,9 +3775,8 @@
       <c r="AG32" s="2">
         <v>6</v>
       </c>
-      <c r="AH32" s="8"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>48.11</v>
       </c>
@@ -3908,9 +3876,8 @@
       <c r="AG33" s="3">
         <v>7</v>
       </c>
-      <c r="AH33" s="8"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>57.95</v>
       </c>
@@ -4010,9 +3977,8 @@
       <c r="AG34" s="3">
         <v>7</v>
       </c>
-      <c r="AH34" s="8"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>95.21</v>
       </c>
@@ -4112,9 +4078,8 @@
       <c r="AG35" s="3">
         <v>7</v>
       </c>
-      <c r="AH35" s="8"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>87.99</v>
       </c>
@@ -4214,9 +4179,8 @@
       <c r="AG36" s="3">
         <v>7</v>
       </c>
-      <c r="AH36" s="8"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>95.55</v>
       </c>
@@ -4316,9 +4280,8 @@
       <c r="AG37" s="3">
         <v>7</v>
       </c>
-      <c r="AH37" s="8"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>91.15</v>
       </c>
@@ -4418,9 +4381,8 @@
       <c r="AG38" s="3">
         <v>7</v>
       </c>
-      <c r="AH38" s="8"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>92.24</v>
       </c>
@@ -4520,9 +4482,8 @@
       <c r="AG39" s="3">
         <v>7</v>
       </c>
-      <c r="AH39" s="8"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>10.61</v>
       </c>
@@ -4622,9 +4583,8 @@
       <c r="AG40" s="4">
         <v>8</v>
       </c>
-      <c r="AH40" s="8"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4724,9 +4684,8 @@
       <c r="AG41" s="4">
         <v>8</v>
       </c>
-      <c r="AH41" s="8"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>69.14</v>
       </c>
@@ -4826,9 +4785,8 @@
       <c r="AG42" s="4">
         <v>8</v>
       </c>
-      <c r="AH42" s="8"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>79.59</v>
       </c>
@@ -4928,9 +4886,8 @@
       <c r="AG43" s="4">
         <v>8</v>
       </c>
-      <c r="AH43" s="8"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>91.58</v>
       </c>
@@ -5030,9 +4987,8 @@
       <c r="AG44" s="4">
         <v>8</v>
       </c>
-      <c r="AH44" s="8"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>62.4</v>
       </c>
@@ -5132,9 +5088,8 @@
       <c r="AG45" s="4">
         <v>8</v>
       </c>
-      <c r="AH45" s="8"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>31.15</v>
       </c>
@@ -5234,9 +5189,8 @@
       <c r="AG46" s="4">
         <v>8</v>
       </c>
-      <c r="AH46" s="8"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -5336,9 +5290,8 @@
       <c r="AG47" s="6">
         <v>2</v>
       </c>
-      <c r="AH47" s="8"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5438,9 +5391,8 @@
       <c r="AG48" s="6">
         <v>2</v>
       </c>
-      <c r="AH48" s="8"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -5540,9 +5492,8 @@
       <c r="AG49" s="6">
         <v>2</v>
       </c>
-      <c r="AH49" s="8"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -5642,9 +5593,8 @@
       <c r="AG50" s="6">
         <v>2</v>
       </c>
-      <c r="AH50" s="8"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -5744,9 +5694,8 @@
       <c r="AG51" s="6">
         <v>2</v>
       </c>
-      <c r="AH51" s="8"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5780,9 +5729,8 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="8"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5816,9 +5764,8 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
-      <c r="AH53" s="8"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5852,9 +5799,8 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="8"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5888,9 +5834,8 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="8"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5924,9 +5869,8 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
-      <c r="AH56" s="8"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5960,9 +5904,8 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
-      <c r="AH57" s="8"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5996,9 +5939,8 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
-      <c r="AH58" s="8"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -6032,9 +5974,8 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
-      <c r="AH59" s="8"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6068,9 +6009,8 @@
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
-      <c r="AH60" s="8"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -6104,9 +6044,8 @@
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
-      <c r="AH61" s="8"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6140,9 +6079,8 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
-      <c r="AH62" s="8"/>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -6176,9 +6114,8 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
-      <c r="AH63" s="8"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6212,9 +6149,8 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
-      <c r="AH64" s="8"/>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6248,9 +6184,8 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
-      <c r="AH65" s="8"/>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6284,9 +6219,8 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
-      <c r="AH66" s="8"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6320,9 +6254,8 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
-      <c r="AH67" s="8"/>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6356,9 +6289,8 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="8"/>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6392,9 +6324,8 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
-      <c r="AH69" s="8"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6428,9 +6359,8 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
-      <c r="AH70" s="8"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6464,9 +6394,8 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
-      <c r="AH71" s="8"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6500,9 +6429,8 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
-      <c r="AH72" s="8"/>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6536,9 +6464,8 @@
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
-      <c r="AH73" s="8"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6572,9 +6499,8 @@
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
-      <c r="AH74" s="8"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6608,9 +6534,8 @@
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
-      <c r="AH75" s="8"/>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6644,9 +6569,8 @@
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="8"/>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6680,9 +6604,8 @@
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
-      <c r="AH77" s="8"/>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6716,9 +6639,8 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="8"/>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6752,9 +6674,8 @@
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
-      <c r="AH79" s="8"/>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6788,9 +6709,8 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="8"/>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -6824,9 +6744,8 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
-      <c r="AH81" s="8"/>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -6860,9 +6779,8 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
-      <c r="AH82" s="8"/>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -6896,9 +6814,8 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
-      <c r="AH83" s="8"/>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -6932,9 +6849,8 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
-      <c r="AH84" s="8"/>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -6968,9 +6884,8 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
-      <c r="AH85" s="8"/>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7004,9 +6919,8 @@
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
-      <c r="AH86" s="8"/>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -7040,9 +6954,8 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
-      <c r="AH87" s="8"/>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7076,9 +6989,8 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
-      <c r="AH88" s="8"/>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -7112,9 +7024,8 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
-      <c r="AH89" s="8"/>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -7148,9 +7059,8 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
-      <c r="AH90" s="8"/>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -7184,9 +7094,8 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
-      <c r="AH91" s="8"/>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7220,9 +7129,8 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
-      <c r="AH92" s="8"/>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -7256,9 +7164,8 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
-      <c r="AH93" s="8"/>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -7292,9 +7199,8 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
-      <c r="AH94" s="8"/>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -7328,9 +7234,8 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
-      <c r="AH95" s="8"/>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7364,9 +7269,8 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
-      <c r="AH96" s="8"/>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -7400,9 +7304,8 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
-      <c r="AH97" s="8"/>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -7436,9 +7339,8 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
-      <c r="AH98" s="8"/>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -7472,9 +7374,8 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
-      <c r="AH99" s="8"/>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -7508,9 +7409,8 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
-      <c r="AH100" s="8"/>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -7544,9 +7444,8 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="5"/>
-      <c r="AH101" s="8"/>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -7580,9 +7479,8 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
-      <c r="AH102" s="8"/>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -7616,9 +7514,8 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
-      <c r="AH103" s="8"/>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -7652,9 +7549,8 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="5"/>
-      <c r="AH104" s="8"/>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -7688,9 +7584,8 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="5"/>
-      <c r="AH105" s="8"/>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -7724,9 +7619,8 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
-      <c r="AH106" s="8"/>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -7760,9 +7654,8 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
-      <c r="AH107" s="8"/>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -7796,9 +7689,8 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="5"/>
-      <c r="AH108" s="8"/>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -7832,9 +7724,8 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
-      <c r="AH109" s="8"/>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -7868,9 +7759,8 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
-      <c r="AH110" s="8"/>
-    </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -7904,9 +7794,8 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="5"/>
-      <c r="AH111" s="8"/>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -7940,9 +7829,8 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="5"/>
-      <c r="AH112" s="8"/>
-    </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -7976,9 +7864,8 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
-      <c r="AH113" s="8"/>
-    </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -8012,9 +7899,8 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
-      <c r="AH114" s="8"/>
-    </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -8048,9 +7934,8 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="5"/>
-      <c r="AH115" s="8"/>
-    </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -8084,9 +7969,8 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="5"/>
-      <c r="AH116" s="8"/>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -8120,7 +8004,6 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="5"/>
-      <c r="AH117" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/tests/other classifiers/child.evaluation.xlsx
+++ b/storage/app/tests/other classifiers/child.evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/other classifiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A39C35B1-D481-B145-B531-93538FDD293E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{48FF2FEE-9B61-0844-8D43-F5FEC68E8A25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{963E8D56-AF94-244D-B5C7-E993FB04D8FF}"/>
   </bookViews>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893DB59-1D90-2946-A5E3-150D4C3C408E}">
-  <dimension ref="A1:AG117"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S18" zoomScale="115" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5695,2316 +5695,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
-      <c r="AF86" s="5"/>
-      <c r="AG86" s="5"/>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="5"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
-      <c r="AF91" s="5"/>
-      <c r="AG91" s="5"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5"/>
-      <c r="AC92" s="5"/>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5"/>
-      <c r="AF92" s="5"/>
-      <c r="AG92" s="5"/>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5"/>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="5"/>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="5"/>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="5"/>
-      <c r="AF95" s="5"/>
-      <c r="AG95" s="5"/>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5"/>
-      <c r="AF96" s="5"/>
-      <c r="AG96" s="5"/>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5"/>
-      <c r="AF97" s="5"/>
-      <c r="AG97" s="5"/>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="5"/>
-      <c r="AC98" s="5"/>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5"/>
-      <c r="AF98" s="5"/>
-      <c r="AG98" s="5"/>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
-      <c r="AD99" s="5"/>
-      <c r="AE99" s="5"/>
-      <c r="AF99" s="5"/>
-      <c r="AG99" s="5"/>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5"/>
-      <c r="AF100" s="5"/>
-      <c r="AG100" s="5"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5"/>
-      <c r="AF102" s="5"/>
-      <c r="AG102" s="5"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="5"/>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
-      <c r="AE103" s="5"/>
-      <c r="AF103" s="5"/>
-      <c r="AG103" s="5"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
-      <c r="AC104" s="5"/>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5"/>
-      <c r="AF104" s="5"/>
-      <c r="AG104" s="5"/>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
-      <c r="X105" s="5"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="5"/>
-      <c r="AC105" s="5"/>
-      <c r="AD105" s="5"/>
-      <c r="AE105" s="5"/>
-      <c r="AF105" s="5"/>
-      <c r="AG105" s="5"/>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="5"/>
-      <c r="AC106" s="5"/>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="5"/>
-      <c r="AF106" s="5"/>
-      <c r="AG106" s="5"/>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-      <c r="W107" s="5"/>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
-      <c r="AC107" s="5"/>
-      <c r="AD107" s="5"/>
-      <c r="AE107" s="5"/>
-      <c r="AF107" s="5"/>
-      <c r="AG107" s="5"/>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="5"/>
-      <c r="W108" s="5"/>
-      <c r="X108" s="5"/>
-      <c r="Y108" s="5"/>
-      <c r="Z108" s="5"/>
-      <c r="AA108" s="5"/>
-      <c r="AB108" s="5"/>
-      <c r="AC108" s="5"/>
-      <c r="AD108" s="5"/>
-      <c r="AE108" s="5"/>
-      <c r="AF108" s="5"/>
-      <c r="AG108" s="5"/>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="5"/>
-      <c r="AC109" s="5"/>
-      <c r="AD109" s="5"/>
-      <c r="AE109" s="5"/>
-      <c r="AF109" s="5"/>
-      <c r="AG109" s="5"/>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5"/>
-      <c r="W110" s="5"/>
-      <c r="X110" s="5"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="5"/>
-      <c r="AC110" s="5"/>
-      <c r="AD110" s="5"/>
-      <c r="AE110" s="5"/>
-      <c r="AF110" s="5"/>
-      <c r="AG110" s="5"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5"/>
-      <c r="W111" s="5"/>
-      <c r="X111" s="5"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
-      <c r="AB111" s="5"/>
-      <c r="AC111" s="5"/>
-      <c r="AD111" s="5"/>
-      <c r="AE111" s="5"/>
-      <c r="AF111" s="5"/>
-      <c r="AG111" s="5"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
-      <c r="AC112" s="5"/>
-      <c r="AD112" s="5"/>
-      <c r="AE112" s="5"/>
-      <c r="AF112" s="5"/>
-      <c r="AG112" s="5"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
-      <c r="W115" s="5"/>
-      <c r="X115" s="5"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
-      <c r="AB115" s="5"/>
-      <c r="AC115" s="5"/>
-      <c r="AD115" s="5"/>
-      <c r="AE115" s="5"/>
-      <c r="AF115" s="5"/>
-      <c r="AG115" s="5"/>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-      <c r="X116" s="5"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
-      <c r="AC116" s="5"/>
-      <c r="AD116" s="5"/>
-      <c r="AE116" s="5"/>
-      <c r="AF116" s="5"/>
-      <c r="AG116" s="5"/>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-      <c r="X117" s="5"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="5"/>
-      <c r="AC117" s="5"/>
-      <c r="AD117" s="5"/>
-      <c r="AE117" s="5"/>
-      <c r="AF117" s="5"/>
-      <c r="AG117" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
